--- a/uploads/output.xlsx
+++ b/uploads/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3646,24 +3646,6 @@
       </c>
       <c r="J83" t="inlineStr"/>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>10322016816@lkc.ac.in</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
